--- a/test_契約管理/已完成/test_契約管理_随時対応_保管場所使用承諾証明書発行.xlsx
+++ b/test_契約管理/已完成/test_契約管理_随時対応_保管場所使用承諾証明書発行.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2949" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="781">
   <si>
     <t>URL:</t>
   </si>
@@ -3743,7 +3743,7 @@
   <dimension ref="A1:EL131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="AA136" sqref="AA136"/>
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4150,9 +4150,7 @@
       <c r="B55" s="96"/>
     </row>
     <row r="56" spans="1:75" s="95" customFormat="1" ht="14.25">
-      <c r="A56" s="102" t="s">
-        <v>165</v>
-      </c>
+      <c r="A56" s="102"/>
       <c r="B56" s="101" t="s">
         <v>656</v>
       </c>

--- a/test_契約管理/已完成/test_契約管理_随時対応_保管場所使用承諾証明書発行.xlsx
+++ b/test_契約管理/已完成/test_契約管理_随時対応_保管場所使用承諾証明書発行.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2953" uniqueCount="788">
   <si>
     <t>URL:</t>
   </si>
@@ -2674,6 +2674,34 @@
   </si>
   <si>
     <t>is_auto_update</t>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGEDOWN</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLEEP</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>2501</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3054,7 +3082,7 @@
     </xf>
     <xf numFmtId="43" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3414,6 +3442,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="ハイパーリンク 2" xfId="11"/>
@@ -3742,7 +3777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EL131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
@@ -14953,10 +14988,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14970,7 +15005,7 @@
       <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="163" t="s">
         <v>744</v>
       </c>
       <c r="C1" s="52"/>
@@ -14985,107 +15020,98 @@
       <c r="B3" s="143"/>
       <c r="C3" s="52"/>
     </row>
-    <row r="4" spans="1:8" s="48" customFormat="1" ht="14.25">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:8" s="154" customFormat="1" ht="14.25">
+      <c r="A4" s="159" t="s">
+        <v>781</v>
+      </c>
+      <c r="C4" s="155"/>
+    </row>
+    <row r="5" spans="1:8" s="48" customFormat="1" ht="14.25">
+      <c r="A5" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B5" s="112" t="s">
         <v>459</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4">
+      <c r="C5" s="52"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5">
         <v>5</v>
       </c>
-      <c r="G4"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.25">
-      <c r="A5" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="112" t="s">
-        <v>745</v>
-      </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" s="49" customFormat="1" ht="14.25">
+      <c r="G5"/>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.25">
       <c r="A6" s="54" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="112" t="s">
+        <v>745</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="F6" s="154" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="49" customFormat="1" ht="14.25">
+      <c r="A7" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="112" t="s">
         <v>746</v>
       </c>
-      <c r="C6" s="52"/>
-    </row>
-    <row r="7" spans="1:8" s="118" customFormat="1" ht="14.25">
-      <c r="A7" s="111" t="s">
+      <c r="C7" s="52"/>
+    </row>
+    <row r="8" spans="1:8" s="118" customFormat="1" ht="14.25">
+      <c r="A8" s="111" t="s">
         <v>533</v>
       </c>
-      <c r="B7" s="163" t="s">
+      <c r="B8" s="163" t="s">
         <v>748</v>
       </c>
-      <c r="C7" s="71"/>
-    </row>
-    <row r="8" spans="1:8" s="49" customFormat="1" ht="14.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="38" t="s">
+      <c r="C8" s="71"/>
+    </row>
+    <row r="9" spans="1:8" s="49" customFormat="1" ht="14.25">
+      <c r="A9" s="50"/>
+      <c r="B9" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C9" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D9" s="38" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="49" customFormat="1" ht="14.25">
-      <c r="A9" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="112" t="s">
+    <row r="10" spans="1:8" s="49" customFormat="1" ht="14.25">
+      <c r="A10" s="69"/>
+      <c r="B10" s="112" t="s">
         <v>610</v>
-      </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="39"/>
-    </row>
-    <row r="10" spans="1:8" s="49" customFormat="1" ht="14.25">
-      <c r="A10" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="112" t="s">
-        <v>477</v>
       </c>
       <c r="C10" s="61"/>
       <c r="D10" s="39"/>
     </row>
     <row r="11" spans="1:8" s="49" customFormat="1" ht="14.25">
-      <c r="A11" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="51" t="s">
-        <v>463</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>460</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>469</v>
-      </c>
+      <c r="A11" s="69"/>
+      <c r="B11" s="112" t="s">
+        <v>477</v>
+      </c>
+      <c r="C11" s="61"/>
+      <c r="D11" s="39"/>
     </row>
     <row r="12" spans="1:8" s="49" customFormat="1" ht="14.25">
       <c r="A12" s="50" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="49" customFormat="1" ht="14.25">
@@ -15093,44 +15119,58 @@
         <v>4</v>
       </c>
       <c r="B13" s="51" t="s">
+        <v>462</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>465</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="49" customFormat="1" ht="14.25">
+      <c r="A14" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="51" t="s">
         <v>464</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C14" s="61" t="s">
         <v>466</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D14" s="39" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="49" customFormat="1"/>
-    <row r="15" spans="1:8" s="49" customFormat="1" ht="14.25">
-      <c r="A15" s="50" t="s">
+    <row r="15" spans="1:8" s="49" customFormat="1"/>
+    <row r="16" spans="1:8" s="49" customFormat="1" ht="14.25">
+      <c r="A16" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="112" t="s">
+      <c r="B16" s="112" t="s">
         <v>749</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F16" s="49" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="49" customFormat="1" ht="14.25">
-      <c r="A16" s="111" t="s">
+    <row r="17" spans="1:2" s="49" customFormat="1" ht="14.25">
+      <c r="A17" s="111" t="s">
         <v>533</v>
       </c>
-      <c r="B16" s="163" t="s">
+      <c r="B17" s="163" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="17" s="49" customFormat="1"/>
-    <row r="38" spans="1:4">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="D38" s="11"/>
-    </row>
+    <row r="18" spans="1:2" s="49" customFormat="1"/>
     <row r="39" spans="1:4">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
@@ -16305,10 +16345,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16331,33 +16371,36 @@
       <c r="F2" s="112"/>
       <c r="G2" s="112"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="C3" s="52"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="111" t="s">
+    <row r="3" spans="1:7" s="154" customFormat="1">
+      <c r="A3" s="163"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+    </row>
+    <row r="4" spans="1:7" s="154" customFormat="1" ht="14.25">
+      <c r="A4" s="159" t="s">
+        <v>781</v>
+      </c>
+      <c r="B4" s="163"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.25">
+      <c r="A5" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B5" s="112" t="s">
         <v>471</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="F4">
+      <c r="C5" s="52"/>
+      <c r="F5">
         <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="103" customFormat="1" ht="14.25">
-      <c r="A5" s="111" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="114" t="s">
-        <v>461</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>537</v>
-      </c>
-      <c r="D5" s="72" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="103" customFormat="1" ht="14.25">
@@ -16365,13 +16408,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="114" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C6" s="73" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>539</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="103" customFormat="1" ht="14.25">
@@ -16379,13 +16422,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="114" t="s">
-        <v>693</v>
+        <v>463</v>
       </c>
       <c r="C7" s="73" t="s">
-        <v>692</v>
+        <v>538</v>
       </c>
       <c r="D7" s="72" t="s">
-        <v>694</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="103" customFormat="1" ht="14.25">
@@ -16393,116 +16436,107 @@
         <v>4</v>
       </c>
       <c r="B8" s="114" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C8" s="73" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D8" s="72" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="103" customFormat="1" ht="14.25">
       <c r="A9" s="111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="114" t="s">
+        <v>696</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>695</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="154" customFormat="1" ht="14.25">
+      <c r="A10" s="159" t="s">
+        <v>784</v>
+      </c>
+      <c r="B10" s="167"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="169"/>
+    </row>
+    <row r="11" spans="1:7" s="154" customFormat="1" ht="14.25">
+      <c r="A11" s="159" t="s">
+        <v>781</v>
+      </c>
+      <c r="B11" s="167"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="169"/>
+    </row>
+    <row r="12" spans="1:7" s="103" customFormat="1" ht="14.25">
+      <c r="A12" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="112" t="s">
+      <c r="B12" s="112" t="s">
         <v>594</v>
       </c>
-      <c r="F9" s="118" t="s">
+      <c r="F12" s="118" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="103" customFormat="1"/>
-    <row r="11" spans="1:7" ht="14.25">
-      <c r="A11" s="111" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="112" t="s">
-        <v>471</v>
-      </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.25">
-      <c r="A12" s="111" t="s">
-        <v>178</v>
-      </c>
-      <c r="B12" s="114" t="s">
-        <v>609</v>
-      </c>
-      <c r="C12" s="156" t="s">
-        <v>759</v>
-      </c>
-      <c r="D12" s="113" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="C13" s="52"/>
-    </row>
+    <row r="13" spans="1:7" s="103" customFormat="1"/>
     <row r="14" spans="1:7" ht="14.25">
-      <c r="A14" s="111" t="s">
-        <v>18</v>
-      </c>
+      <c r="A14" s="111"/>
       <c r="B14" s="112" t="s">
         <v>471</v>
       </c>
-      <c r="C14" s="52"/>
-    </row>
-    <row r="15" spans="1:7" s="103" customFormat="1" ht="14.25">
+      <c r="C14" s="71"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.25">
       <c r="A15" s="111" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="112" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="114" t="s">
+        <v>609</v>
+      </c>
+      <c r="C15" s="156" t="s">
+        <v>759</v>
+      </c>
+      <c r="D15" s="113" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="C16" s="52"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.25">
+      <c r="A17" s="111"/>
+      <c r="B17" s="112" t="s">
+        <v>471</v>
+      </c>
+      <c r="C17" s="52"/>
+    </row>
+    <row r="18" spans="1:7" s="103" customFormat="1" ht="14.25">
+      <c r="A18" s="111"/>
+      <c r="B18" s="112" t="s">
         <v>473</v>
       </c>
-      <c r="C15" s="71"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.25">
-      <c r="A16" s="111" t="s">
-        <v>533</v>
-      </c>
-      <c r="B16" s="154" t="s">
-        <v>761</v>
-      </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.25">
-      <c r="A18" s="111" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>703</v>
-      </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="C18" s="71"/>
     </row>
     <row r="19" spans="1:7" ht="14.25">
       <c r="A19" s="111" t="s">
-        <v>704</v>
-      </c>
-      <c r="B19" s="11"/>
+        <v>533</v>
+      </c>
+      <c r="B19" s="154" t="s">
+        <v>761</v>
+      </c>
       <c r="C19" s="52"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -16511,20 +16545,53 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="52"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
+    <row r="21" spans="1:7" ht="14.25">
+      <c r="A21" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>703</v>
+      </c>
       <c r="C21" s="52"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.25">
+      <c r="A22" s="111" t="s">
+        <v>704</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="11"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
@@ -16538,7 +16605,7 @@
   <dimension ref="A1:EM19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AZ24" sqref="AZ24"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16717,8 +16784,8 @@
       <c r="I5" s="161" t="s">
         <v>199</v>
       </c>
-      <c r="J5" s="161" t="s">
-        <v>596</v>
+      <c r="J5" s="165" t="s">
+        <v>786</v>
       </c>
       <c r="K5" s="161" t="s">
         <v>597</v>
@@ -17684,10 +17751,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17708,43 +17775,41 @@
       <c r="B2" s="70"/>
     </row>
     <row r="3" spans="1:8" s="53" customFormat="1"/>
-    <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="117" t="s">
-        <v>473</v>
-      </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="H4" s="81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="53" customFormat="1" ht="14.25">
+    <row r="4" spans="1:8" s="154" customFormat="1" ht="14.25">
+      <c r="A4" s="159" t="s">
+        <v>781</v>
+      </c>
+      <c r="B4" s="163"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="80" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="117" t="s">
-        <v>697</v>
+        <v>473</v>
       </c>
       <c r="D5" s="78"/>
       <c r="E5" s="78"/>
-      <c r="H5" s="82" t="s">
-        <v>472</v>
+      <c r="H5" s="81">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="53" customFormat="1" ht="14.25">
       <c r="A6" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="79" t="s">
-        <v>700</v>
+      <c r="B6" s="117" t="s">
+        <v>697</v>
       </c>
       <c r="D6" s="78"/>
       <c r="E6" s="78"/>
       <c r="H6" s="82" t="s">
-        <v>612</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="53" customFormat="1" ht="14.25">
@@ -17752,12 +17817,12 @@
         <v>18</v>
       </c>
       <c r="B7" s="79" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D7" s="78"/>
       <c r="E7" s="78"/>
       <c r="H7" s="82" t="s">
-        <v>474</v>
+        <v>612</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="53" customFormat="1" ht="14.25">
@@ -17765,159 +17830,165 @@
         <v>18</v>
       </c>
       <c r="B8" s="79" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D8" s="78"/>
       <c r="E8" s="78"/>
       <c r="H8" s="82" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="53" customFormat="1" ht="14.25">
+      <c r="A9" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="79" t="s">
+        <v>699</v>
+      </c>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="H9" s="82" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="53" customFormat="1" ht="14.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="52"/>
-    </row>
     <row r="10" spans="1:8" s="53" customFormat="1" ht="14.25">
-      <c r="A10" s="80" t="s">
-        <v>613</v>
-      </c>
-      <c r="B10" s="85">
-        <v>1</v>
-      </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="52"/>
     </row>
     <row r="11" spans="1:8" s="53" customFormat="1" ht="14.25">
       <c r="A11" s="80" t="s">
-        <v>614</v>
-      </c>
-      <c r="B11" s="157" t="s">
-        <v>766</v>
+        <v>613</v>
+      </c>
+      <c r="B11" s="85">
+        <v>1</v>
       </c>
       <c r="C11" s="81"/>
       <c r="D11" s="78"/>
-      <c r="E11" s="74"/>
-    </row>
-    <row r="12" spans="1:8" s="103" customFormat="1" ht="14.25">
-      <c r="A12" s="111" t="s">
-        <v>613</v>
-      </c>
-      <c r="B12" s="158">
-        <v>-1</v>
+      <c r="E11" s="78"/>
+    </row>
+    <row r="12" spans="1:8" s="53" customFormat="1" ht="14.25">
+      <c r="A12" s="80" t="s">
+        <v>614</v>
+      </c>
+      <c r="B12" s="157" t="s">
+        <v>766</v>
       </c>
       <c r="C12" s="81"/>
       <c r="D12" s="78"/>
-    </row>
-    <row r="13" spans="1:8" s="53" customFormat="1" ht="14.25">
-      <c r="A13" s="80" t="s">
+      <c r="E12" s="74"/>
+    </row>
+    <row r="13" spans="1:8" s="103" customFormat="1" ht="14.25">
+      <c r="A13" s="111" t="s">
         <v>613</v>
       </c>
-      <c r="B13" s="86">
-        <v>1</v>
+      <c r="B13" s="158">
+        <v>-1</v>
       </c>
       <c r="C13" s="81"/>
       <c r="D13" s="78"/>
-      <c r="E13" s="74"/>
     </row>
     <row r="14" spans="1:8" s="53" customFormat="1" ht="14.25">
       <c r="A14" s="80" t="s">
-        <v>614</v>
-      </c>
-      <c r="B14" s="157" t="s">
-        <v>765</v>
+        <v>613</v>
+      </c>
+      <c r="B14" s="86">
+        <v>1</v>
       </c>
       <c r="C14" s="81"/>
       <c r="D14" s="78"/>
       <c r="E14" s="74"/>
     </row>
-    <row r="15" spans="1:8" s="103" customFormat="1" ht="14.25">
-      <c r="A15" s="111" t="s">
-        <v>613</v>
-      </c>
-      <c r="B15" s="158">
-        <v>-1</v>
+    <row r="15" spans="1:8" s="53" customFormat="1" ht="14.25">
+      <c r="A15" s="80" t="s">
+        <v>614</v>
+      </c>
+      <c r="B15" s="157" t="s">
+        <v>765</v>
       </c>
       <c r="C15" s="81"/>
       <c r="D15" s="78"/>
-    </row>
-    <row r="16" spans="1:8" s="53" customFormat="1" ht="14.25">
-      <c r="A16" s="80" t="s">
+      <c r="E15" s="74"/>
+    </row>
+    <row r="16" spans="1:8" s="103" customFormat="1" ht="14.25">
+      <c r="A16" s="111" t="s">
         <v>613</v>
       </c>
-      <c r="B16" s="87">
-        <v>1</v>
+      <c r="B16" s="158">
+        <v>-1</v>
       </c>
       <c r="C16" s="81"/>
       <c r="D16" s="78"/>
-      <c r="E16" s="74"/>
     </row>
     <row r="17" spans="1:5" s="53" customFormat="1" ht="14.25">
       <c r="A17" s="80" t="s">
-        <v>614</v>
-      </c>
-      <c r="B17" s="157" t="s">
-        <v>764</v>
-      </c>
-      <c r="C17" s="78"/>
+        <v>613</v>
+      </c>
+      <c r="B17" s="87">
+        <v>1</v>
+      </c>
+      <c r="C17" s="81"/>
       <c r="D17" s="78"/>
       <c r="E17" s="74"/>
     </row>
-    <row r="18" spans="1:5" s="103" customFormat="1" ht="14.25">
-      <c r="A18" s="111" t="s">
-        <v>613</v>
-      </c>
-      <c r="B18" s="158">
-        <v>-1</v>
+    <row r="18" spans="1:5" s="53" customFormat="1" ht="14.25">
+      <c r="A18" s="80" t="s">
+        <v>614</v>
+      </c>
+      <c r="B18" s="157" t="s">
+        <v>764</v>
       </c>
       <c r="C18" s="78"/>
       <c r="D18" s="78"/>
-    </row>
-    <row r="19" spans="1:5" s="53" customFormat="1" ht="14.25">
-      <c r="A19" s="80" t="s">
+      <c r="E18" s="74"/>
+    </row>
+    <row r="19" spans="1:5" s="103" customFormat="1" ht="14.25">
+      <c r="A19" s="111" t="s">
         <v>613</v>
       </c>
-      <c r="B19" s="88">
-        <v>1</v>
+      <c r="B19" s="158">
+        <v>-1</v>
       </c>
       <c r="C19" s="78"/>
       <c r="D19" s="78"/>
-      <c r="E19" s="74"/>
     </row>
     <row r="20" spans="1:5" s="53" customFormat="1" ht="14.25">
       <c r="A20" s="80" t="s">
+        <v>613</v>
+      </c>
+      <c r="B20" s="88">
+        <v>1</v>
+      </c>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="74"/>
+    </row>
+    <row r="21" spans="1:5" s="53" customFormat="1" ht="14.25">
+      <c r="A21" s="80" t="s">
         <v>614</v>
       </c>
-      <c r="B20" s="157" t="s">
+      <c r="B21" s="157" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="103" customFormat="1" ht="14.25">
-      <c r="A21" s="111" t="s">
+    <row r="22" spans="1:5" s="103" customFormat="1" ht="14.25">
+      <c r="A22" s="111" t="s">
         <v>613</v>
       </c>
-      <c r="B21" s="158">
+      <c r="B22" s="158">
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="53" customFormat="1" ht="14.25">
-      <c r="A22" s="84" t="s">
+    <row r="23" spans="1:5" s="53" customFormat="1" ht="14.25">
+      <c r="A23" s="84" t="s">
         <v>613</v>
       </c>
-      <c r="B22" s="83">
+      <c r="B23" s="83">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="53" customFormat="1"/>
     <row r="24" spans="1:5" s="53" customFormat="1"/>
-    <row r="25" spans="1:5">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-    </row>
+    <row r="25" spans="1:5" s="53" customFormat="1"/>
     <row r="26" spans="1:5">
       <c r="A26" s="53"/>
       <c r="B26" s="53"/>
@@ -17945,6 +18016,13 @@
       <c r="C29" s="53"/>
       <c r="D29" s="53"/>
       <c r="E29" s="53"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
@@ -17955,10 +18033,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17977,14 +18055,13 @@
     <row r="2" spans="1:10" s="118" customFormat="1">
       <c r="B2" s="70"/>
     </row>
-    <row r="4" spans="1:10" s="154" customFormat="1" ht="14.25">
+    <row r="3" spans="1:10" s="154" customFormat="1">
+      <c r="B3" s="70"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.25">
       <c r="A4" s="159" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="163" t="s">
-        <v>471</v>
-      </c>
-      <c r="C4" s="155"/>
+        <v>781</v>
+      </c>
     </row>
     <row r="5" spans="1:10" s="154" customFormat="1" ht="14.25">
       <c r="A5" s="159" t="s">
@@ -18034,15 +18111,19 @@
     </row>
     <row r="10" spans="1:10" s="154" customFormat="1" ht="14.25">
       <c r="A10" s="159" t="s">
+        <v>785</v>
+      </c>
+      <c r="B10" s="154">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="154" customFormat="1" ht="14.25">
+      <c r="A11" s="159" t="s">
         <v>533</v>
       </c>
-      <c r="B10" s="154" t="s">
+      <c r="B11" s="154" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11" s="154"/>
-      <c r="J11" s="154"/>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="154"/>
@@ -18073,9 +18154,13 @@
       <c r="J18" s="154"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="103"/>
       <c r="B19" s="154"/>
       <c r="J19" s="154"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="103"/>
+      <c r="B20" s="154"/>
+      <c r="J20" s="154"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
@@ -18086,10 +18171,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18106,100 +18191,100 @@
     <row r="2" spans="1:10" s="53" customFormat="1">
       <c r="A2" s="60"/>
     </row>
-    <row r="3" spans="1:10" s="53" customFormat="1" ht="14.25">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:10" s="154" customFormat="1">
+      <c r="A3" s="60"/>
+    </row>
+    <row r="4" spans="1:10" s="154" customFormat="1" ht="14.25">
+      <c r="A4" s="159" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="53" customFormat="1" ht="14.25">
+      <c r="A5" s="54" t="s">
         <v>532</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B5" s="53" t="s">
         <v>605</v>
       </c>
-      <c r="D3" s="103"/>
-    </row>
-    <row r="4" spans="1:10" s="53" customFormat="1" ht="14.25">
-      <c r="A4" s="111" t="s">
-        <v>533</v>
-      </c>
-      <c r="B4" s="154" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="53" customFormat="1">
-      <c r="A5" s="118"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="68"/>
+      <c r="D5" s="103"/>
     </row>
     <row r="6" spans="1:10" s="53" customFormat="1" ht="14.25">
       <c r="A6" s="111" t="s">
+        <v>533</v>
+      </c>
+      <c r="B6" s="154" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="53" customFormat="1">
+      <c r="A7" s="118"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="68"/>
+    </row>
+    <row r="8" spans="1:10" s="53" customFormat="1" ht="14.25">
+      <c r="A8" s="111" t="s">
         <v>532</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B8" s="53" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.25">
-      <c r="A7" s="111" t="s">
+    <row r="9" spans="1:10" ht="14.25">
+      <c r="A9" s="111" t="s">
         <v>534</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="118" customFormat="1" ht="14.25">
-      <c r="A9" s="111" t="s">
-        <v>532</v>
-      </c>
-      <c r="B9" s="118" t="s">
-        <v>706</v>
-      </c>
-      <c r="J9" s="118">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="118" customFormat="1" ht="14.25">
-      <c r="A10" s="111" t="s">
-        <v>532</v>
-      </c>
-      <c r="B10" s="118" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="118" customFormat="1" ht="14.25">
       <c r="A11" s="111" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="118" customFormat="1"/>
+        <v>532</v>
+      </c>
+      <c r="B11" s="118" t="s">
+        <v>706</v>
+      </c>
+      <c r="J11" s="118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="118" customFormat="1" ht="14.25">
+      <c r="A12" s="111" t="s">
+        <v>532</v>
+      </c>
+      <c r="B12" s="118" t="s">
+        <v>707</v>
+      </c>
+    </row>
     <row r="13" spans="1:10" s="118" customFormat="1" ht="14.25">
       <c r="A13" s="111" t="s">
-        <v>532</v>
-      </c>
-      <c r="B13" s="118" t="s">
-        <v>459</v>
-      </c>
-      <c r="J13" s="118">
-        <v>5</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="118" customFormat="1" ht="14.25">
-      <c r="A14" s="111" t="s">
-        <v>532</v>
-      </c>
-      <c r="B14" s="118" t="s">
-        <v>708</v>
+      <c r="A14" s="159" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="118" customFormat="1" ht="14.25">
       <c r="A15" s="111" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="118" customFormat="1"/>
+        <v>532</v>
+      </c>
+      <c r="B15" s="118" t="s">
+        <v>459</v>
+      </c>
+      <c r="J15" s="118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="154" customFormat="1" ht="14.25">
+      <c r="A16" s="159" t="s">
+        <v>783</v>
+      </c>
+    </row>
     <row r="17" spans="1:5" s="118" customFormat="1" ht="14.25">
       <c r="A17" s="111" t="s">
         <v>532</v>
       </c>
       <c r="B17" s="118" t="s">
-        <v>535</v>
-      </c>
-      <c r="E17" s="118" t="s">
-        <v>590</v>
+        <v>708</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="118" customFormat="1" ht="14.25">
@@ -18208,14 +18293,35 @@
       </c>
     </row>
     <row r="19" spans="1:5" s="118" customFormat="1" ht="14.25">
-      <c r="A19" s="111" t="s">
+      <c r="A19" s="159" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="118" customFormat="1" ht="14.25">
+      <c r="A20" s="111" t="s">
+        <v>532</v>
+      </c>
+      <c r="B20" s="118" t="s">
+        <v>535</v>
+      </c>
+      <c r="E20" s="118" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="118" customFormat="1" ht="14.25">
+      <c r="A21" s="111" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="118" customFormat="1" ht="14.25">
+      <c r="A22" s="111" t="s">
         <v>533</v>
       </c>
-      <c r="B19" s="154" t="s">
+      <c r="B22" s="154" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="118" customFormat="1"/>
+    <row r="23" spans="1:5" s="118" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18227,8 +18333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EM20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18407,8 +18513,8 @@
       <c r="I5" s="161" t="s">
         <v>199</v>
       </c>
-      <c r="J5" s="161" t="s">
-        <v>596</v>
+      <c r="J5" s="165" t="s">
+        <v>787</v>
       </c>
       <c r="K5" s="161" t="s">
         <v>597</v>
